--- a/data/processed/state_overviews/alabama_overview.xlsx
+++ b/data/processed/state_overviews/alabama_overview.xlsx
@@ -2484,27 +2484,27 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2516,27 +2516,27 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2548,27 +2548,27 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/alabama_overview.xlsx
+++ b/data/processed/state_overviews/alabama_overview.xlsx
@@ -364,27 +364,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,455 +431,455 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Autauga County</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$7,250,108</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.36%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-19.70%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>93.75%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Baldwin County</t>
+          <t>Alabama</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>1,118</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$7,433,770</t>
+          <t>$1,944,864,228</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.94%</t>
+          <t>7.87%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-17.01%</t>
+          <t>-21.45%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>67.35%</t>
+          <t>72.00%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Barbour County</t>
+          <t>Autauga County</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$467,219</t>
+          <t>$7,250,108</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.87%</t>
+          <t>11.36%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-38.85%</t>
+          <t>-19.70%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>85.71%</t>
+          <t>93.75%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bibb County</t>
+          <t>Baldwin County</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>49</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$19,532,541</t>
+          <t>$7,433,770</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.71%</t>
+          <t>13.94%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-13.41%</t>
+          <t>-17.01%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Blount County</t>
+          <t>Barbour County</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$2,559,452</t>
+          <t>$467,219</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.18%</t>
+          <t>11.87%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-52.79%</t>
+          <t>-38.85%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>85.71%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bullock County</t>
+          <t>Bibb County</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$154,645</t>
+          <t>$19,532,541</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-1.19%</t>
+          <t>2.71%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-19.32%</t>
+          <t>-13.41%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Butler County</t>
+          <t>Blount County</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$1,977,024</t>
+          <t>$2,559,452</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8.33%</t>
+          <t>6.18%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-48.03%</t>
+          <t>-52.79%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Calhoun County</t>
+          <t>Bullock County</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$19,906,882</t>
+          <t>$154,645</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.00%</t>
+          <t>-1.19%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-67.60%</t>
+          <t>-19.32%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>90.62%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Chambers County</t>
+          <t>Butler County</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$2,418,677</t>
+          <t>$1,977,024</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>19.31%</t>
+          <t>8.33%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-8.31%</t>
+          <t>-48.03%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Cherokee County</t>
+          <t>Calhoun County</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$305,675</t>
+          <t>$19,906,882</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7.13%</t>
+          <t>5.00%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-74.45%</t>
+          <t>-67.60%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>90.62%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Chilton County</t>
+          <t>Chambers County</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$1,030,032</t>
+          <t>$2,418,677</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>16.73%</t>
+          <t>19.31%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-17.93%</t>
+          <t>-8.31%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>58.33%</t>
+          <t>83.33%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Choctaw County</t>
+          <t>Cherokee County</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$219,288</t>
+          <t>$305,675</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>47.21%</t>
+          <t>7.13%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-8.97%</t>
+          <t>-74.45%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Clarke County</t>
+          <t>Chilton County</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$4,108,262</t>
+          <t>$1,030,032</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>33.39%</t>
+          <t>16.73%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-12.83%</t>
+          <t>-17.93%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>58.33%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Clay County</t>
+          <t>Choctaw County</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -889,529 +889,529 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$225,666</t>
+          <t>$219,288</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>36.76%</t>
+          <t>47.21%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-7.77%</t>
+          <t>-8.97%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Cleburne County</t>
+          <t>Clarke County</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$784,558</t>
+          <t>$4,108,262</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>8.27%</t>
+          <t>33.39%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-30.52%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Coffee County</t>
+          <t>Clay County</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$9,118,253</t>
+          <t>$225,666</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.03%</t>
+          <t>36.76%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-9.28%</t>
+          <t>-7.77%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Colbert County</t>
+          <t>Cleburne County</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$3,098,207</t>
+          <t>$784,558</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.36%</t>
+          <t>8.27%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-45.11%</t>
+          <t>-30.52%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>87.50%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Coosa County</t>
+          <t>Coffee County</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$21,826</t>
+          <t>$9,118,253</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>74.58%</t>
+          <t>4.03%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>73.87%</t>
+          <t>-9.28%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>71.43%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Covington County</t>
+          <t>Colbert County</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$6,048,412</t>
+          <t>$3,098,207</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2.60%</t>
+          <t>1.36%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-86.81%</t>
+          <t>-45.11%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>87.50%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Cullman County</t>
+          <t>Coosa County</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$10,316,417</t>
+          <t>$21,826</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>8.56%</t>
+          <t>74.58%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-5.45%</t>
+          <t>73.87%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>63.64%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Dale County</t>
+          <t>Covington County</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$1,589,497</t>
+          <t>$6,048,412</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>16.03%</t>
+          <t>2.60%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>8.57%</t>
+          <t>-86.81%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Dallas County</t>
+          <t>Cullman County</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$13,640,276</t>
+          <t>$10,316,417</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>16.64%</t>
+          <t>8.56%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-23.84%</t>
+          <t>-5.45%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>63.64%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DeKalb County</t>
+          <t>Dale County</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$19,768,983</t>
+          <t>$1,589,497</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-3.54%</t>
+          <t>16.03%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-65.70%</t>
+          <t>8.57%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Elmore County</t>
+          <t>Dallas County</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$2,027,088</t>
+          <t>$13,640,276</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4.33%</t>
+          <t>16.64%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-5.18%</t>
+          <t>-23.84%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>58.33%</t>
+          <t>83.33%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Escambia County</t>
+          <t>DeKalb County</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$537,697</t>
+          <t>$19,768,983</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>9.01%</t>
+          <t>-3.54%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.80%</t>
+          <t>-65.70%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>40.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Etowah County</t>
+          <t>Elmore County</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$34,785,529</t>
+          <t>$2,027,088</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>12.71%</t>
+          <t>4.33%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>-45.26%</t>
+          <t>-5.18%</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>86.36%</t>
+          <t>58.33%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fayette County</t>
+          <t>Escambia County</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$489,554</t>
+          <t>$537,697</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4.87%</t>
+          <t>9.01%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>-49.49%</t>
+          <t>3.80%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Franklin County</t>
+          <t>Etowah County</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$1,528,070</t>
+          <t>$34,785,529</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-4.93%</t>
+          <t>12.71%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>-57.11%</t>
+          <t>-45.26%</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>86.36%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Greene County</t>
+          <t>Fayette County</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$1,637,562</t>
+          <t>$489,554</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>12.00%</t>
+          <t>4.87%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>-37.57%</t>
+          <t>-49.49%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Hale County</t>
+          <t>Franklin County</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$28,904</t>
+          <t>$1,528,070</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>9.84%</t>
+          <t>-4.93%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>-36.27%</t>
+          <t>-57.11%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1423,7 +1423,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Henry County</t>
+          <t>Greene County</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1433,81 +1433,81 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$897,836</t>
+          <t>$1,637,562</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-14.94%</t>
+          <t>12.00%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>-65.36%</t>
+          <t>-37.57%</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Houston County</t>
+          <t>Hale County</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$7,182,148</t>
+          <t>$28,904</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>7.03%</t>
+          <t>9.84%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-9.59%</t>
+          <t>-36.27%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>63.33%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Jackson County</t>
+          <t>Henry County</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$4,915,042</t>
+          <t>$897,836</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>20.00%</t>
+          <t>-14.94%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-33.10%</t>
+          <t>-65.36%</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1519,583 +1519,583 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Jefferson County</t>
+          <t>Houston County</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$1,039,240,163</t>
+          <t>$7,182,148</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>10.80%</t>
+          <t>7.03%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-13.34%</t>
+          <t>-9.59%</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>68.08%</t>
+          <t>63.33%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Lamar County</t>
+          <t>Jackson County</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$274,551</t>
+          <t>$4,915,042</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>28.34%</t>
+          <t>20.00%</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-16.47%</t>
+          <t>-33.10%</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Lauderdale County</t>
+          <t>Jefferson County</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>260</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$10,014,790</t>
+          <t>$1,039,240,163</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>8.44%</t>
+          <t>10.80%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>-17.15%</t>
+          <t>-13.34%</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>68.18%</t>
+          <t>68.08%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Lawrence County</t>
+          <t>Lamar County</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$28,240</t>
+          <t>$274,551</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>82.63%</t>
+          <t>28.34%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>67.52%</t>
+          <t>-16.47%</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Lee County</t>
+          <t>Lauderdale County</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$11,281,082</t>
+          <t>$10,014,790</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>8.44%</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>-0.65%</t>
+          <t>-17.15%</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>68.18%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Limestone County</t>
+          <t>Lawrence County</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$3,820,133</t>
+          <t>$28,240</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>13.08%</t>
+          <t>82.63%</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>-18.92%</t>
+          <t>67.52%</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>63.64%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Macon County</t>
+          <t>Lee County</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$76,140,437</t>
+          <t>$11,281,082</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-13.30%</t>
+          <t>17.27%</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>-41.40%</t>
+          <t>-0.65%</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Madison County</t>
+          <t>Limestone County</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$88,459,802</t>
+          <t>$3,820,133</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>9.42%</t>
+          <t>13.08%</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>-18.30%</t>
+          <t>-18.92%</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>64.29%</t>
+          <t>63.64%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Marengo County</t>
+          <t>Macon County</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$887,752</t>
+          <t>$76,140,437</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>29.39%</t>
+          <t>-13.30%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>5.33%</t>
+          <t>-41.40%</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Marion County</t>
+          <t>Madison County</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>84</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$2,144,563</t>
+          <t>$88,459,802</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>34.73%</t>
+          <t>9.42%</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>-42.35%</t>
+          <t>-18.30%</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>64.29%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Marshall County</t>
+          <t>Marengo County</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$1,494,774</t>
+          <t>$887,752</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>9.14%</t>
+          <t>29.39%</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>-35.05%</t>
+          <t>5.33%</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Mobile County</t>
+          <t>Marion County</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$126,892,044</t>
+          <t>$2,144,563</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>6.70%</t>
+          <t>34.73%</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>-27.15%</t>
+          <t>-42.35%</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>79.05%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Monroe County</t>
+          <t>Marshall County</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$587,525</t>
+          <t>$1,494,774</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>6.56%</t>
+          <t>9.14%</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>-30.69%</t>
+          <t>-35.05%</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Montgomery County</t>
+          <t>Mobile County</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>105</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$203,767,716</t>
+          <t>$126,892,044</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>5.11%</t>
+          <t>6.70%</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>-17.88%</t>
+          <t>-27.15%</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>76.92%</t>
+          <t>79.05%</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Morgan County</t>
+          <t>Monroe County</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$44,512,207</t>
+          <t>$587,525</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>7.23%</t>
+          <t>6.56%</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>-25.59%</t>
+          <t>-30.69%</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>73.33%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Perry County</t>
+          <t>Montgomery County</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>91</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>$325,185</t>
+          <t>$203,767,716</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>22.05%</t>
+          <t>5.11%</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>-27.44%</t>
+          <t>-17.88%</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>76.92%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Pickens County</t>
+          <t>Morgan County</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>$4,760,932</t>
+          <t>$44,512,207</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2.42%</t>
+          <t>7.23%</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>-92.22%</t>
+          <t>-25.59%</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>73.33%</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Pike County</t>
+          <t>Perry County</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>$4,790,849</t>
+          <t>$325,185</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>5.53%</t>
+          <t>22.05%</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>-29.15%</t>
+          <t>-27.44%</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>77.78%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Randolph County</t>
+          <t>Pickens County</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2105,17 +2105,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>$137,279</t>
+          <t>$4,760,932</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1.54%</t>
+          <t>2.42%</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>-6.01%</t>
+          <t>-92.22%</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2127,379 +2127,379 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Russell County</t>
+          <t>Pike County</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>$1,455,322</t>
+          <t>$4,790,849</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>8.12%</t>
+          <t>5.53%</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>-43.75%</t>
+          <t>-29.15%</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>77.78%</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Shelby County</t>
+          <t>Randolph County</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>$8,622,867</t>
+          <t>$137,279</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>11.61%</t>
+          <t>1.54%</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>-11.90%</t>
+          <t>-6.01%</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>64.86%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>St. Clair County</t>
+          <t>Russell County</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>$532,505</t>
+          <t>$1,455,322</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>-2.27%</t>
+          <t>8.12%</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>-15.11%</t>
+          <t>-43.75%</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>83.33%</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sumter County</t>
+          <t>Shelby County</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>$13,511,244</t>
+          <t>$8,622,867</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-8.73%</t>
+          <t>11.61%</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>-76.20%</t>
+          <t>-11.90%</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>64.86%</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Talladega County</t>
+          <t>St. Clair County</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>$22,138,066</t>
+          <t>$532,505</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2.09%</t>
+          <t>-2.27%</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>-71.65%</t>
+          <t>-15.11%</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>78.57%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Tallapoosa County</t>
+          <t>Sumter County</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>$16,560,345</t>
+          <t>$13,511,244</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>13.97%</t>
+          <t>-8.73%</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>8.24%</t>
+          <t>-76.20%</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Tuscaloosa County</t>
+          <t>Talladega County</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>$65,060,893</t>
+          <t>$22,138,066</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>5.15%</t>
+          <t>2.09%</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>-29.88%</t>
+          <t>-71.65%</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>76.09%</t>
+          <t>78.57%</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Walker County</t>
+          <t>Tallapoosa County</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>$9,553,941</t>
+          <t>$16,560,345</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1.02%</t>
+          <t>13.97%</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>-73.07%</t>
+          <t>8.24%</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>92.31%</t>
+          <t>42.86%</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Washington County</t>
+          <t>Tuscaloosa County</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>$1,375,793</t>
+          <t>$65,060,893</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>22.26%</t>
+          <t>5.15%</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>-14.88%</t>
+          <t>-29.88%</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>76.09%</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Wilcox County</t>
+          <t>Walker County</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>$51,320</t>
+          <t>$9,553,941</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>41.90%</t>
+          <t>1.02%</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>33.48%</t>
+          <t>-73.07%</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>92.31%</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Winston County</t>
+          <t>Washington County</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>$436,808</t>
+          <t>$1,375,793</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-10.23%</t>
+          <t>22.26%</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>-12.30%</t>
+          <t>-14.88%</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Geneva County</t>
+          <t>Wilcox County</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$51,320</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>41.90%</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>33.48%</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2511,96 +2511,32 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Crenshaw County</t>
+          <t>Winston County</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$436,808</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-10.23%</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-12.30%</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Conecuh County</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>1,118</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>$1,944,864,228</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>7.87%</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>-21.45%</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>72.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2611,7 +2547,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2620,288 +2556,320 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Congressional District</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Congressional District 1</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$136,826,829</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.37%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-20.54%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>73.94%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Congressional District 2</t>
+          <t>Alabama</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>1,118</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$191,748,943</t>
+          <t>$1,944,864,228</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.83%</t>
+          <t>7.87%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-12.59%</t>
+          <t>-21.45%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>72.08%</t>
+          <t>72.00%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Congressional District 3</t>
+          <t>1st Congressional district</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>165</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$152,696,563</t>
+          <t>$136,826,829</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.45%</t>
+          <t>8.37%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-38.45%</t>
+          <t>-20.54%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>71.90%</t>
+          <t>73.94%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Congressional District 4</t>
+          <t>2nd Congressional district</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>154</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$92,810,301</t>
+          <t>$191,748,943</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.03%</t>
+          <t>6.83%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-37.19%</t>
+          <t>-12.59%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>79.61%</t>
+          <t>72.08%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Congressional District 5</t>
+          <t>3rd Congressional district</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>121</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$142,831,310</t>
+          <t>$152,696,563</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.43%</t>
+          <t>7.45%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-22.74%</t>
+          <t>-38.45%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>68.84%</t>
+          <t>71.90%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Congressional District 6</t>
+          <t>4th Congressional district</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>103</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$137,856,638</t>
+          <t>$92,810,301</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11.99%</t>
+          <t>8.03%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-11.43%</t>
+          <t>-37.19%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>63.95%</t>
+          <t>79.61%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Congressional District 7</t>
+          <t>5th Congressional district</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>138</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$1,090,093,644</t>
+          <t>$142,831,310</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.59%</t>
+          <t>8.43%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-25.70%</t>
+          <t>-22.74%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>73.79%</t>
+          <t>68.84%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>6th Congressional district</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1,118</t>
+          <t>147</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$1,944,864,228</t>
+          <t>$137,856,638</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7.87%</t>
+          <t>11.99%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-21.45%</t>
+          <t>-11.43%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>72.00%</t>
+          <t>63.95%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>7th Congressional district</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>$1,090,093,644</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.59%</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-25.70%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>73.79%</t>
         </is>
       </c>
     </row>
@@ -2926,34 +2894,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Between $100K and $499K</t>
+          <t>$100K to $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2985,128 +2953,128 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Between $1M and $4.99M</t>
+          <t>$10M or more</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>65</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$222,432,739</t>
+          <t>$1,451,982,852</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.43%</t>
+          <t>6.94%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-15.09%</t>
+          <t>-24.33%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>73.28%</t>
+          <t>75.38%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Between $500K and $999K</t>
+          <t>$1M to $4.9M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>262</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$52,651,684</t>
+          <t>$222,432,739</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.08%</t>
+          <t>6.43%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-17.95%</t>
+          <t>-15.09%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>70.62%</t>
+          <t>73.28%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Between $5M and $9.99M</t>
+          <t>$500K to $999K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>194</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$158,624,028</t>
+          <t>$52,651,684</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.73%</t>
+          <t>8.08%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-18.14%</t>
+          <t>-17.95%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>70.91%</t>
+          <t>70.62%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greater than $10M</t>
+          <t>$5M to $9.9M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$1,451,982,852</t>
+          <t>$158,624,028</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.94%</t>
+          <t>3.73%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-24.33%</t>
+          <t>-18.14%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>75.38%</t>
+          <t>70.91%</t>
         </is>
       </c>
     </row>
@@ -3195,34 +3163,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, Culture, and Humanities</t>
+          <t>Arts, culture, and humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3254,7 +3222,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education (Excluding Universities)</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3286,7 +3254,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and Animals</t>
+          <t>Environment and animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3318,7 +3286,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health (Excluding Hospitals)</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3382,7 +3350,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human Services</t>
+          <t>Human services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3414,7 +3382,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, Foreign Affairs</t>
+          <t>International, foreign affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3446,7 +3414,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, Societal Benefit</t>
+          <t>Public, societal benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3478,7 +3446,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion Related</t>
+          <t>Religion-related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3510,64 +3478,64 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$393,906,838</t>
+          <t>$156,380,048</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6.34%</t>
+          <t>5.10%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-14.12%</t>
+          <t>-30.12%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>69.86%</t>
+          <t>91.67%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>209</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$156,380,048</t>
+          <t>$393,906,838</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.10%</t>
+          <t>6.34%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-30.12%</t>
+          <t>-14.12%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>91.67%</t>
+          <t>69.86%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/alabama_overview.xlsx
+++ b/data/processed/state_overviews/alabama_overview.xlsx
@@ -364,54 +364,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>72.00%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>1,118</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$1,944,864,228</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>7.87%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-21.45%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>72.00%</t>
         </is>
       </c>
     </row>
@@ -436,27 +436,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>72.00%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>1,118</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$1,944,864,228</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>7.87%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-21.45%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>72.00%</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>93.75%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$7,250,108</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>11.36%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-19.70%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>93.75%</t>
         </is>
       </c>
     </row>
@@ -564,27 +564,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>49</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$7,433,770</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>13.94%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-17.01%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>85.71%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$467,219</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>11.87%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-38.85%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>85.71%</t>
         </is>
       </c>
     </row>
@@ -628,27 +628,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$19,532,541</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2.71%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-13.41%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -660,27 +660,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$2,559,452</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>6.18%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-52.79%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -692,27 +692,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$154,645</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>-1.19%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-19.32%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -724,27 +724,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$1,977,024</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>8.33%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-48.03%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>90.62%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>32</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$19,906,882</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>5.00%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>-67.60%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>90.62%</t>
         </is>
       </c>
     </row>
@@ -788,27 +788,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$2,418,677</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>19.31%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>-8.31%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -820,27 +820,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$305,675</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>7.13%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-74.45%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -852,27 +852,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>58.33%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$1,030,032</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>16.73%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-17.93%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>58.33%</t>
         </is>
       </c>
     </row>
@@ -884,27 +884,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>$219,288</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>47.21%</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>-8.97%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -916,27 +916,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>$4,108,262</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>33.39%</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -948,27 +948,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>$225,666</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>36.76%</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>-7.77%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -980,27 +980,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>$784,558</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>8.27%</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>-30.52%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1012,27 +1012,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>$9,118,253</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>4.03%</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>-9.28%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>71.43%</t>
         </is>
       </c>
     </row>
@@ -1044,27 +1044,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>87.50%</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>$3,098,207</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1.36%</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>-45.11%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>87.50%</t>
         </is>
       </c>
     </row>
@@ -1076,27 +1076,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>$21,826</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>74.58%</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>73.87%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1108,27 +1108,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>$6,048,412</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2.60%</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>-86.81%</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1140,27 +1140,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>63.64%</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>$10,316,417</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>8.56%</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>-5.45%</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>63.64%</t>
         </is>
       </c>
     </row>
@@ -1172,27 +1172,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>$1,589,497</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>16.03%</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>8.57%</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1204,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>$13,640,276</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>16.64%</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>-23.84%</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -1236,27 +1236,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>$19,768,983</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>-3.54%</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>-65.70%</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1268,27 +1268,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>58.33%</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>$2,027,088</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>4.33%</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>-5.18%</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>58.33%</t>
         </is>
       </c>
     </row>
@@ -1300,27 +1300,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>$537,697</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>9.01%</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>3.80%</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -1332,27 +1332,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>86.36%</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>$34,785,529</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>12.71%</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>-45.26%</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>86.36%</t>
         </is>
       </c>
     </row>
@@ -1364,27 +1364,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>$489,554</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>4.87%</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>-49.49%</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1396,27 +1396,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>$1,528,070</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>-4.93%</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>-57.11%</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1428,27 +1428,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>$1,637,562</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>12.00%</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>-37.57%</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1460,27 +1460,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>$28,904</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>9.84%</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>-36.27%</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1492,27 +1492,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>$897,836</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>-14.94%</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>-65.36%</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1524,27 +1524,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>63.33%</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>$7,182,148</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>7.03%</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>-9.59%</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>63.33%</t>
         </is>
       </c>
     </row>
@@ -1556,27 +1556,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>$4,915,042</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>20.00%</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>-33.10%</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1588,27 +1588,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>68.08%</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>260</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>$1,039,240,163</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>10.80%</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>-13.34%</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>68.08%</t>
         </is>
       </c>
     </row>
@@ -1620,27 +1620,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>$274,551</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>28.34%</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>-16.47%</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1652,27 +1652,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>68.18%</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>$10,014,790</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>8.44%</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>-17.15%</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>68.18%</t>
         </is>
       </c>
     </row>
@@ -1684,27 +1684,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>$28,240</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>82.63%</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>67.52%</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1716,27 +1716,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>24</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>$11,281,082</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>17.27%</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>-0.65%</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1748,27 +1748,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>63.64%</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>$3,820,133</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>13.08%</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>-18.92%</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>63.64%</t>
         </is>
       </c>
     </row>
@@ -1780,27 +1780,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>$76,140,437</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>-13.30%</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>-41.40%</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1812,27 +1812,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>64.29%</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>84</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>$88,459,802</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>9.42%</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>-18.30%</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>64.29%</t>
         </is>
       </c>
     </row>
@@ -1844,27 +1844,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>$887,752</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>29.39%</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>5.33%</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -1876,27 +1876,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>$2,144,563</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>34.73%</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>-42.35%</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1908,27 +1908,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>$1,494,774</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>9.14%</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>-35.05%</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -1940,27 +1940,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>79.05%</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>105</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>$126,892,044</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>6.70%</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>-27.15%</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>79.05%</t>
         </is>
       </c>
     </row>
@@ -1972,27 +1972,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>$587,525</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>6.56%</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>-30.69%</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -2004,27 +2004,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>76.92%</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>91</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>$203,767,716</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>5.11%</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>-17.88%</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>76.92%</t>
         </is>
       </c>
     </row>
@@ -2036,27 +2036,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>73.33%</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>$44,512,207</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>7.23%</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>-25.59%</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>73.33%</t>
         </is>
       </c>
     </row>
@@ -2068,27 +2068,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>$325,185</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>22.05%</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>-27.44%</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2100,27 +2100,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>$4,760,932</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2.42%</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>-92.22%</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2132,27 +2132,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>77.78%</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>$4,790,849</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>5.53%</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>-29.15%</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>77.78%</t>
         </is>
       </c>
     </row>
@@ -2164,27 +2164,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>$137,279</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1.54%</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>-6.01%</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2196,27 +2196,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>$1,455,322</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>8.12%</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>-43.75%</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -2228,27 +2228,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>64.86%</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
           <t>37</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>$8,622,867</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>11.61%</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>-11.90%</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>64.86%</t>
         </is>
       </c>
     </row>
@@ -2260,27 +2260,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>$532,505</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>-2.27%</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>-15.11%</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -2292,27 +2292,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>$13,511,244</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>-8.73%</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>-76.20%</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -2324,27 +2324,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>78.57%</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>$22,138,066</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2.09%</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>-71.65%</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>78.57%</t>
         </is>
       </c>
     </row>
@@ -2356,27 +2356,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>42.86%</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>$16,560,345</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>13.97%</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>8.24%</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>42.86%</t>
         </is>
       </c>
     </row>
@@ -2388,27 +2388,27 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>76.09%</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>46</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>$65,060,893</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>5.15%</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>-29.88%</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>76.09%</t>
         </is>
       </c>
     </row>
@@ -2420,27 +2420,27 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>92.31%</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>$9,553,941</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1.02%</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>-73.07%</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>92.31%</t>
         </is>
       </c>
     </row>
@@ -2452,27 +2452,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>$1,375,793</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>22.26%</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>-14.88%</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -2484,27 +2484,27 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>$51,320</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>41.90%</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>33.48%</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2516,27 +2516,27 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>$436,808</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>-10.23%</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>-12.30%</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2561,27 +2561,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -2593,27 +2593,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -2625,251 +2625,251 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>72.00%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>1,118</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$1,944,864,228</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>7.87%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-21.45%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>72.00%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1st Congressional district</t>
+          <t>Congressional District 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>73.94%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>165</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$136,826,829</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>8.37%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-20.54%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>73.94%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2nd Congressional district</t>
+          <t>Congressional District 2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>72.08%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>154</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$191,748,943</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>6.83%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-12.59%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>72.08%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3rd Congressional district</t>
+          <t>Congressional District 3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>71.90%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>121</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$152,696,563</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>7.45%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-38.45%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>71.90%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4th Congressional district</t>
+          <t>Congressional District 4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>79.61%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>103</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$92,810,301</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>8.03%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-37.19%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>79.61%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5th Congressional district</t>
+          <t>Congressional District 5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>68.84%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>138</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$142,831,310</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>8.43%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-22.74%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>68.84%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6th Congressional district</t>
+          <t>Congressional District 6</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>63.95%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>147</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$137,856,638</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>11.99%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-11.43%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>63.95%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7th Congressional district</t>
+          <t>Congressional District 7</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>73.79%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>290</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$1,090,093,644</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>7.59%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-25.70%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>73.79%</t>
         </is>
       </c>
     </row>
@@ -2894,187 +2894,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$100K to $499K</t>
+          <t>Between $100K and $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>73.33%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>420</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$52,787,598</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.18%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-25.64%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>73.33%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$10M or more</t>
+          <t>Between $1M and $4.99M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>73.28%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$1,451,982,852</t>
+          <t>262</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.94%</t>
+          <t>$222,432,739</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-24.33%</t>
+          <t>6.43%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>75.38%</t>
+          <t>-15.09%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$1M to $4.9M</t>
+          <t>Between $500K and $999K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>70.62%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$222,432,739</t>
+          <t>194</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.43%</t>
+          <t>$52,651,684</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-15.09%</t>
+          <t>8.08%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>73.28%</t>
+          <t>-17.95%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$500K to $999K</t>
+          <t>Between $5M and $9.99M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>70.91%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$52,651,684</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.08%</t>
+          <t>$158,624,028</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-17.95%</t>
+          <t>3.73%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>70.62%</t>
+          <t>-18.14%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$5M to $9.9M</t>
+          <t>Greater than $10M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>75.38%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$158,624,028</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.73%</t>
+          <t>$1,451,982,852</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-18.14%</t>
+          <t>6.94%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>70.91%</t>
+          <t>-24.33%</t>
         </is>
       </c>
     </row>
@@ -3086,27 +3086,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>65.57%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>122</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$6,385,327</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>25.25%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-25.06%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>65.57%</t>
         </is>
       </c>
     </row>
@@ -3118,27 +3118,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>72.00%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>1,118</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$1,944,864,228</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>7.87%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-21.45%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>72.00%</t>
         </is>
       </c>
     </row>
@@ -3163,155 +3163,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, culture, and humanities</t>
+          <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>70.83%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>72</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$17,136,438</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>11.92%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-15.34%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>70.83%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Education (Excluding Universities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>66.28%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>86</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$101,286,804</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>9.67%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-13.46%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>66.28%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and animals</t>
+          <t>Environment and Animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>50</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$32,619,478</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>11.10%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-9.20%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>71.56%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>109</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$156,962,469</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>9.89%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-24.78%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>71.56%</t>
         </is>
       </c>
     </row>
@@ -3323,219 +3323,219 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$4,284,965</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>-8.99%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-19.65%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>83.33%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human services</t>
+          <t>Human Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>76.92%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>429</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$1,006,072,479</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>7.75%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-30.68%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>76.92%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, foreign affairs</t>
+          <t>International, Foreign Affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$1,290,548</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>15.85%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1.62%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, societal benefit</t>
+          <t>Public, Societal Benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>76.83%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>82</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$69,050,486</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>5.64%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-39.93%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>76.83%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion-related</t>
+          <t>Religion Related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>54.72%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>53</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$5,873,675</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>10.26%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-11.16%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>54.72%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>69.86%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$156,380,048</t>
+          <t>209</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5.10%</t>
+          <t>$393,906,838</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-30.12%</t>
+          <t>6.34%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>91.67%</t>
+          <t>-14.12%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>91.67%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$393,906,838</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6.34%</t>
+          <t>$156,380,048</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-14.12%</t>
+          <t>5.10%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>69.86%</t>
+          <t>-30.12%</t>
         </is>
       </c>
     </row>
@@ -3547,27 +3547,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>72.00%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>1,118</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$1,944,864,228</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>7.87%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-21.45%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>72.00%</t>
         </is>
       </c>
     </row>
